--- a/biology/Zoologie/Angiostrongylus_vasorum/Angiostrongylus_vasorum.xlsx
+++ b/biology/Zoologie/Angiostrongylus_vasorum/Angiostrongylus_vasorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Angiostrongylus vasorum est un nématode responsable de l'angiostrongylose canine. On connait très peu la biologie de cette espèce[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angiostrongylus vasorum est un nématode responsable de l'angiostrongylose canine. On connait très peu la biologie de cette espèce.
 </t>
         </is>
       </c>
@@ -513,70 +525,181 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie
-C'est un petit ver de couleur rosâtre. Sa longueur varie de 14 à 20,5 mm et sa largeur est de 0,170 à 0,306 mm[2]. 
-Cycle de vie
-Ses hôtes naturels intermédiaires sont les limaces, les escargots terrestres et d'eau douce[3]. Il montre peu de spécificité chez son hôte intermédiaire[4]. 
-Son hôte naturel est la grande limace[2].
-Ses hôtes définitifs naturels sont les chiens domestiques[3] et divers autres carnivores dont notamment[5]:
-le renard roux Vulpes vulpes[6]
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit ver de couleur rosâtre. Sa longueur varie de 14 à 20,5 mm et sa largeur est de 0,170 à 0,306 mm. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Angiostrongylus_vasorum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angiostrongylus_vasorum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cycle de vie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ses hôtes naturels intermédiaires sont les limaces, les escargots terrestres et d'eau douce. Il montre peu de spécificité chez son hôte intermédiaire. 
+Son hôte naturel est la grande limace.
+Ses hôtes définitifs naturels sont les chiens domestiques et divers autres carnivores dont notamment:
+le renard roux Vulpes vulpes
 le renard d'Aszara Pseudalopex gymnocerus
 le renard chenu Pseudalopex vetulus
 le renard des savanes Cerdocyon thous
 le loup Canis lupus
 le coyote Canis latrans
-le fennec Vulpes zerda[6]
-le blaireau européen Meles meles[7].
-Les hôtes naturels paraténiques peuvent être des grenouilles, des lézards, des souris et des rats[3].
+le fennec Vulpes zerda
+le blaireau européen Meles meles.
+Les hôtes naturels paraténiques peuvent être des grenouilles, des lézards, des souris et des rats.
 Les hôtes intermédiaires expérimentaux comprennent: 
-Biomphalaria glabrata[3]
-Tenagophila Biomphalaria[8].
+Biomphalaria glabrata
+Tenagophila Biomphalaria.
 Les hôtes définitifs expérimentaux comprennent:
-le chacal Canis aureus[6]
-le rat du Nil Arvicanthis niloticus[6]
-Répartition
-Sa région d'origine (enzootique) est l'Europe occidentale (Royaume-Uni, Irlande, France, Espagne)[3],[6]. 
+le chacal Canis aureus
+le rat du Nil Arvicanthis niloticus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Angiostrongylus_vasorum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angiostrongylus_vasorum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa région d'origine (enzootique) est l'Europe occidentale (Royaume-Uni, Irlande, France, Espagne),. 
 D'autres zones sont connues comme:
-en Europe: Danemark[9], Allemagne, Italie, Suisse[6] et Portugal[5]
-en Afrique: Ouganda[6]
-en Asie: Turquie et les pays de l'ex-URSS[6]
-en Amérique du Nord: Canada (Terre-Neuve)[6]), États-Unis[3].
-Des larves du premier stade ont été découvertes en Australie[3], Argentine et Grèce[6].
-La zone où se trouve cette espèce est en pleine expansion[1]
-On l'a également signalé en Amérique du Sud: Brésil et Colombie, mais l'analyse moléculaire a révélé que l'espèce en provenance du Brésil a un génotype différent[5]. Il est donc possible que ce soit une espèce différente au Brésil et dans d'autres d'Amérique du Sud[5].
+en Europe: Danemark, Allemagne, Italie, Suisse et Portugal
+en Afrique: Ouganda
+en Asie: Turquie et les pays de l'ex-URSS
+en Amérique du Nord: Canada (Terre-Neuve)), États-Unis.
+Des larves du premier stade ont été découvertes en Australie, Argentine et Grèce.
+La zone où se trouve cette espèce est en pleine expansion
+On l'a également signalé en Amérique du Sud: Brésil et Colombie, mais l'analyse moléculaire a révélé que l'espèce en provenance du Brésil a un génotype différent. Il est donc possible que ce soit une espèce différente au Brésil et dans d'autres d'Amérique du Sud.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Angiostrongylus_vasorum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Angiostrongylus_vasorum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adulte hématophage vit dans le ventricule droit du cœur et l'artère pulmonaire[3]. On retrouve les larves dans les alvéoles et les bronches d'où elles peuvent remonter jusque dans le tractus digestif et être éliminées avec les matières fécales. L'infection peut provoquer des complications cardiaques, pulmonaires, circulatoires, rénales et être fatale[6].
-Traitement
-Il n'y a pas de traitement approuvé. On peut utiliser des anti-helminthiques comme le Lévamisole, le Fenbendazole et l'ivermectine. Ce traitement doit être associé à un traitement corticoïde pour éviter les chocs anaphylactiques et antiagrégant plaquettaire.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adulte hématophage vit dans le ventricule droit du cœur et l'artère pulmonaire. On retrouve les larves dans les alvéoles et les bronches d'où elles peuvent remonter jusque dans le tractus digestif et être éliminées avec les matières fécales. L'infection peut provoquer des complications cardiaques, pulmonaires, circulatoires, rénales et être fatale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Angiostrongylus_vasorum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angiostrongylus_vasorum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas de traitement approuvé. On peut utiliser des anti-helminthiques comme le Lévamisole, le Fenbendazole et l'ivermectine. Ce traitement doit être associé à un traitement corticoïde pour éviter les chocs anaphylactiques et antiagrégant plaquettaire.
 </t>
         </is>
       </c>
